--- a/Python_Lessons/13_OpenPyxl/Grades.xlsx
+++ b/Python_Lessons/13_OpenPyxl/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patriciaann.parrocha\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patriciaann.parrocha/Desktop/PYTHON_TRAINING/python-training/Python_Lessons/13_OpenPyxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB69411-4CA1-4285-9E84-15BC135501E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60258012-5B2B-9442-9F11-50F0886879C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15380" windowHeight="7880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -407,9 +407,9 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -443,7 +443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -460,7 +460,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -477,7 +477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -494,7 +494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -515,7 +515,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;8 &amp;K737373#Asurion_Internal_Use_Only_x000D_&amp;1#&amp;"Calibri"&amp;8 &amp;K737373Asurion_Internal_Use_Only</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;8 &amp;K737373#Asurion_Internal_Use_Only_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K737373 Asurion_Internal_Use_Only</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d176fefe-83de-4b32-859d-542d6c2f6125}" enabled="1" method="Standard" siteId="{64e5ad32-cb04-44df-8896-bed5d7792429}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>